--- a/fortran-excel/build/tests/basic/test.xlsx
+++ b/fortran-excel/build/tests/basic/test.xlsx
@@ -11,13 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">new_sheet!$A$1:$B$4</definedName>
+    <definedName name="Exchange_rate">110.0</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Ho-gens</t>
   </si>
@@ -35,6 +36,9 @@
   </si>
   <si>
     <t>Totals:</t>
+  </si>
+  <si>
+    <t>http://libxlsxwriter.github.io</t>
   </si>
 </sst>
 </file>
@@ -45,7 +49,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="yyyy-mm-dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +68,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -133,6 +145,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,13 +483,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="1" max="2" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" customFormat="1" ht="40" customHeight="1">
@@ -526,9 +542,23 @@
         <v>44256.10428240741</v>
       </c>
     </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9">
+        <f>Exchange_rate</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B4"/>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>